--- a/honeypot_data_sheets/attacker_reports_20251028.xlsx
+++ b/honeypot_data_sheets/attacker_reports_20251028.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>total_seconds</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>duration_ms</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -436,52 +441,56 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>server2_1761595915.txt</t>
+          <t>server1_1761677224.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>206.189.12.5</t>
+          <t>10.175.90.186</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-10-27 16:14:57.405</t>
+          <t>2025-10-28 14:50:25.985</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-10-27 16:15:01.083</t>
+          <t>2025-10-28 14:50:26.416</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>server2</t>
+          <t>server1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>export PATH=/usr/local/sbin:/usr/local/bin:/usr/sbin:/usr/bin:/sbin:/bin:$PATH</t>
+          <t>2025-10-28 14:50:26.100 - [Debug] [EXEC] Noninteractive mode attacker command: bash -c
+1</t>
         </is>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>431</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +501,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>server2_1761597033.txt</t>
+          <t>server1_1761677434.txt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -502,42 +511,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>206.189.12.5</t>
+          <t>80.94.95.116</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-10-27 16:33:07.465</t>
+          <t>2025-10-28 14:52:12.121</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-10-27 16:33:12.118</t>
+          <t>2025-10-28 14:52:13.579</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>server2</t>
+          <t>server1</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>export PATH=/usr/local/sbin:/usr/local/bin:/usr/sbin:/usr/bin:/sbin:/bin:$PATH</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1458</v>
       </c>
     </row>
     <row r="4">
@@ -548,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>server2_1761597207.txt</t>
+          <t>server1_1761677541.txt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,42 +566,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>206.189.12.5</t>
+          <t>112.17.140.107</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-10-27 16:35:54.508</t>
+          <t>2025-10-28 14:56:43.383</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-10-27 16:35:58.643</t>
+          <t>2025-10-28 14:56:44.039</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>server2</t>
+          <t>server1</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>export PATH=/usr/local/sbin:/usr/local/bin:/usr/sbin:/usr/bin:/sbin:/bin:$PATH</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>656</v>
       </c>
     </row>
     <row r="5">
@@ -604,52 +611,58 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>server2_1761597639.txt</t>
+          <t>server1_1761677811.txt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>206.189.12.5</t>
+          <t>10.175.90.186</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-10-27 16:43:26.772</t>
+          <t>2025-10-28 15:02:08.772</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-10-27 16:43:32.379</t>
+          <t>2025-10-28 15:02:17.950</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>server2</t>
+          <t>server1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>export PATH=/usr/local/sbin:/usr/local/bin:/usr/sbin:/usr/bin:/sbin:/bin:$PATH</t>
+          <t>echo hi
+ls
+quit
+exit</t>
         </is>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>9178</v>
       </c>
     </row>
     <row r="6">
@@ -660,12 +673,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>server2_1761598758.txt</t>
+          <t>server2_1761595915.txt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -675,12 +688,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-10-27 17:01:25.140</t>
+          <t>2025-10-27 16:14:57.405</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-10-27 17:01:28.741</t>
+          <t>2025-10-27 16:15:01.083</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -702,10 +715,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3678</v>
       </c>
     </row>
     <row r="7">
@@ -716,12 +732,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>server3_1761596487.txt</t>
+          <t>server2_1761597033.txt</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -731,17 +747,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-10-27 16:23:58.648</t>
+          <t>2025-10-27 16:33:07.465</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-10-27 16:24:02.848</t>
+          <t>2025-10-27 16:33:12.118</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>server3</t>
+          <t>server2</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -758,10 +774,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4653</v>
       </c>
     </row>
     <row r="8">
@@ -772,12 +791,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>server3_1761596852.txt</t>
+          <t>server2_1761597207.txt</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -787,17 +806,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-10-27 16:30:14.614</t>
+          <t>2025-10-27 16:35:54.508</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-10-27 16:30:20.214</t>
+          <t>2025-10-27 16:35:58.643</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>server3</t>
+          <t>server2</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -814,10 +833,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4135</v>
       </c>
     </row>
     <row r="9">
@@ -828,12 +850,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>server3_1761597035.txt</t>
+          <t>server2_1761597639.txt</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -843,17 +865,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-10-27 16:33:07.474</t>
+          <t>2025-10-27 16:43:26.772</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-10-27 16:33:11.826</t>
+          <t>2025-10-27 16:43:32.379</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>server3</t>
+          <t>server2</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -870,10 +892,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5607</v>
       </c>
     </row>
     <row r="10">
@@ -884,7 +909,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>server3_1761597207.txt</t>
+          <t>server2_1761598758.txt</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -899,17 +924,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-10-27 16:35:54.522</t>
+          <t>2025-10-27 17:01:25.140</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-10-27 16:35:58.485</t>
+          <t>2025-10-27 17:01:28.741</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>server3</t>
+          <t>server2</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -926,10 +951,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3601</v>
       </c>
     </row>
     <row r="11">
@@ -940,7 +968,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>server4_1761596634.txt</t>
+          <t>server3_1761596487.txt</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -955,17 +983,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:09.665</t>
+          <t>2025-10-27 16:23:58.648</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-10-27 16:27:17.108</t>
+          <t>2025-10-27 16:24:02.848</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>server4</t>
+          <t>server3</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -982,10 +1010,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4200</v>
       </c>
     </row>
     <row r="12">
@@ -996,12 +1027,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>server4_1761597374.txt</t>
+          <t>server3_1761596852.txt</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1011,17 +1042,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-10-27 16:40:18.482</t>
+          <t>2025-10-27 16:30:14.614</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-10-27 16:40:24.295</t>
+          <t>2025-10-27 16:30:20.214</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>server4</t>
+          <t>server3</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1043,6 +1074,9 @@
       <c r="L12" t="n">
         <v>6</v>
       </c>
+      <c r="M12" t="n">
+        <v>5600</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1052,7 +1086,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>server4_1761597999.txt</t>
+          <t>server3_1761597035.txt</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1067,17 +1101,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-10-27 16:49:12.391</t>
+          <t>2025-10-27 16:33:07.474</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-10-27 16:49:15.709</t>
+          <t>2025-10-27 16:33:11.826</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>server4</t>
+          <t>server3</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1094,10 +1128,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4352</v>
       </c>
     </row>
     <row r="14">
@@ -1108,52 +1145,458 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>server3_1761597207.txt</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>206.189.12.5</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025-10-27 16:35:54.522</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-10-27 16:35:58.485</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>server3</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>export PATH=/usr/local/sbin:/usr/local/bin:/usr/sbin:/usr/bin:/sbin:/bin:$PATH</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>server4_1761596634.txt</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>206.189.12.5</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025-10-27 16:27:09.665</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-10-27 16:27:17.108</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>server4</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>export PATH=/usr/local/sbin:/usr/local/bin:/usr/sbin:/usr/bin:/sbin:/bin:$PATH</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>8</v>
+      </c>
+      <c r="L15" t="n">
+        <v>8</v>
+      </c>
+      <c r="M15" t="n">
+        <v>7443</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>server4_1761597374.txt</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>206.189.12.5</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2025-10-27 16:40:18.482</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-10-27 16:40:24.295</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>server4</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>export PATH=/usr/local/sbin:/usr/local/bin:/usr/sbin:/usr/bin:/sbin:/bin:$PATH</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5813</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>server4_1761597999.txt</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>206.189.12.5</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2025-10-27 16:49:12.391</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-10-27 16:49:15.709</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>server4</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>export PATH=/usr/local/sbin:/usr/local/bin:/usr/sbin:/usr/bin:/sbin:/bin:$PATH</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>server4_1761598168.txt</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>206.189.12.5</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2025-10-27 16:51:57.822</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2025-10-27 16:52:02.646</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>server4</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>export PATH=/usr/local/sbin:/usr/local/bin:/usr/sbin:/usr/bin:/sbin:/bin:$PATH</t>
         </is>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>5</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L18" t="n">
         <v>5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4824</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>server4</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>server4_1761599709.txt</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>206.189.12.5</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-10-27 17:18:34.958</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025-10-27 17:18:41.537</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>export PATH=/usr/local/sbin:/usr/local/bin:/usr/sbin:/usr/bin:/sbin:/bin:$PATH</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>7</v>
+      </c>
+      <c r="L19" t="n">
+        <v>7</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>server4_1761676122.txt</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>45.140.17.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2025-10-28 14:30:24.852</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-10-28 14:30:25.545</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>server4</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>server4_1761676233.txt</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>185.156.73.233</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2025-10-28 14:33:31.151</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-10-28 14:33:32.602</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>server4</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1451</v>
       </c>
     </row>
   </sheetData>
